--- a/weka/exclusion_analysis.xlsx
+++ b/weka/exclusion_analysis.xlsx
@@ -383,7 +383,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
